--- a/Salary.xlsx
+++ b/Salary.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:G41"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>55704</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
